--- a/Results/PRICES.xlsx
+++ b/Results/PRICES.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="290">
   <si>
     <t>id</t>
   </si>
@@ -238,9 +238,6 @@
     <t>CLF#3:29</t>
   </si>
   <si>
-    <t>BG#5:4</t>
-  </si>
-  <si>
     <t>BG#5:7</t>
   </si>
   <si>
@@ -478,9 +475,6 @@
     <t>if it seemed possible to do so while there i would have fought my bill since my dinner portion of my meal was inedible!</t>
   </si>
   <si>
-    <t>i have it a 4 instead of 5 because of the price (just chicken tikka masala - no bread of rice - is $25), which i would expect at a upscale indian restaurant but this place doesn't have an upscale feel.</t>
-  </si>
-  <si>
     <t>but if you're prepared to spend some $ and remember to ask if something they offer is complimentary, then this is the place to go for indian food</t>
   </si>
   <si>
@@ -565,9 +559,6 @@
     <t>like</t>
   </si>
   <si>
-    <t>fabulous</t>
-  </si>
-  <si>
     <t>authentic</t>
   </si>
   <si>
@@ -580,10 +571,13 @@
     <t>bargain</t>
   </si>
   <si>
+    <t>extensive</t>
+  </si>
+  <si>
     <t>reasonably</t>
   </si>
   <si>
-    <t>terrific</t>
+    <t>better</t>
   </si>
   <si>
     <t>recommend</t>
@@ -598,6 +592,9 @@
     <t>incredible</t>
   </si>
   <si>
+    <t>speedy</t>
+  </si>
+  <si>
     <t>keep</t>
   </si>
   <si>
@@ -637,9 +634,6 @@
     <t>inedible</t>
   </si>
   <si>
-    <t>upscale</t>
-  </si>
-  <si>
     <t>complimentary</t>
   </si>
   <si>
@@ -649,9 +643,6 @@
     <t>wonderful</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
@@ -863,9 +854,6 @@
   </si>
   <si>
     <t>['seemed', 'possible', 'would', 'fought', 'bill', 'since', 'dinner', 'portion', 'meal', 'inedible']</t>
-  </si>
-  <si>
-    <t>['', 'instead', '', 'price', 'chicken', 'tikka', 'masala', 'bread', 'rice', '', 'would', 'expect', 'upscale', 'indian', 'restaurant', 'place', 'upscale', 'feel']</t>
   </si>
   <si>
     <t>['prepared', 'spend', 'remember', 'ask', 'something', 'offer', 'complimentary', 'place', 'go', 'indian', 'food']</t>
@@ -1253,7 +1241,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1284,16 +1272,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1304,16 +1292,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F3" t="s">
         <v>212</v>
-      </c>
-      <c r="F3" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1324,16 +1312,16 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1344,16 +1332,16 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1364,16 +1352,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1384,16 +1372,16 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1404,16 +1392,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E8" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1424,16 +1412,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E9" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F9" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1444,16 +1432,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E10" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F10" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1464,16 +1452,16 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E11" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F11" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1484,16 +1472,16 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E12" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F12" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1504,16 +1492,16 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E13" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F13" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1524,16 +1512,16 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E14" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F14" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1544,16 +1532,16 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E15" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F15" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1564,16 +1552,16 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E16" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1584,16 +1572,16 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D17" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E17" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F17" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1604,16 +1592,16 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E18" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F18" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1624,16 +1612,16 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E19" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1644,16 +1632,16 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E20" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F20" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1664,16 +1652,16 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E21" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F21" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1684,16 +1672,16 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E22" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F22" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1704,16 +1692,16 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D23" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E23" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F23" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1724,16 +1712,16 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D24" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E24" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F24" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1744,16 +1732,16 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D25" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E25" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F25" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1764,16 +1752,16 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D26" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E26" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F26" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1784,16 +1772,16 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D27" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E27" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F27" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1804,16 +1792,16 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D28" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E28" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F28" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1824,16 +1812,16 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D29" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E29" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F29" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1844,16 +1832,16 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D30" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E30" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F30" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1864,16 +1852,16 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D31" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="E31" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F31" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1884,16 +1872,16 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D32" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E32" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F32" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1904,16 +1892,16 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D33" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E33" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F33" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1924,16 +1912,16 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D34" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E34" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F34" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1944,16 +1932,16 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D35" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E35" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F35" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1964,16 +1952,16 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D36" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E36" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F36" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1984,16 +1972,16 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D37" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E37" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F37" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2004,16 +1992,16 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E38" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F38" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2024,16 +2012,16 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E39" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F39" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2044,16 +2032,16 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E40" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F40" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2064,16 +2052,16 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E41" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F41" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2084,16 +2072,16 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D42" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E42" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F42" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2104,16 +2092,16 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D43" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E43" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F43" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2124,16 +2112,16 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D44" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E44" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F44" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2144,16 +2132,16 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D45" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E45" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F45" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2164,16 +2152,16 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D46" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E46" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F46" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2184,16 +2172,16 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D47" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E47" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F47" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2204,16 +2192,16 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D48" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E48" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F48" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2224,16 +2212,16 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D49" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="E49" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F49" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2244,16 +2232,16 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D50" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E50" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F50" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2264,16 +2252,16 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D51" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E51" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F51" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2284,16 +2272,16 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D52" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E52" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F52" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2304,16 +2292,16 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D53" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E53" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F53" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2324,16 +2312,16 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D54" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E54" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F54" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2344,16 +2332,16 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D55" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E55" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F55" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2364,16 +2352,16 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D56" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E56" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F56" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2384,16 +2372,16 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D57" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E57" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F57" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2404,16 +2392,16 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D58" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E58" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F58" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2424,16 +2412,16 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D59" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E59" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F59" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2444,16 +2432,16 @@
         <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D60" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E60" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F60" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2464,16 +2452,16 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D61" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E61" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F61" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2484,16 +2472,16 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D62" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E62" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F62" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2504,16 +2492,16 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D63" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E63" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F63" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2524,16 +2512,16 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D64" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E64" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F64" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2544,16 +2532,16 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D65" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E65" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F65" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2564,16 +2552,16 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D66" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E66" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F66" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2584,16 +2572,16 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D67" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E67" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F67" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2604,16 +2592,16 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D68" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E68" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F68" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2624,16 +2612,16 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D69" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E69" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F69" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2644,16 +2632,16 @@
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D70" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E70" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F70" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2664,16 +2652,16 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D71" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E71" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F71" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2684,16 +2672,16 @@
         <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D72" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E72" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F72" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2704,16 +2692,16 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D73" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E73" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F73" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2724,16 +2712,16 @@
         <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D74" t="s">
-        <v>210</v>
+        <v>167</v>
       </c>
       <c r="E74" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F74" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2744,16 +2732,16 @@
         <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D75" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E75" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F75" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2764,16 +2752,16 @@
         <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D76" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="E76" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F76" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2784,16 +2772,16 @@
         <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D77" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="E77" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F77" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2804,16 +2792,16 @@
         <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D78" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="E78" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F78" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2824,16 +2812,16 @@
         <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D79" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="E79" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F79" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2844,36 +2832,16 @@
         <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D80" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="E80" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F80" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
-        <v>84</v>
-      </c>
-      <c r="C81" t="s">
-        <v>164</v>
-      </c>
-      <c r="D81" t="s">
-        <v>191</v>
-      </c>
-      <c r="E81" t="s">
-        <v>213</v>
-      </c>
-      <c r="F81" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/Results/PRICES.xlsx
+++ b/Results/PRICES.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="287">
   <si>
     <t>id</t>
   </si>
@@ -127,6 +127,9 @@
     <t>1671113:1</t>
   </si>
   <si>
+    <t>1727363:1</t>
+  </si>
+  <si>
     <t>1748813:1</t>
   </si>
   <si>
@@ -208,9 +211,6 @@
     <t>NP#3:6</t>
   </si>
   <si>
-    <t>BzG#2:0</t>
-  </si>
-  <si>
     <t>BzG#2:1</t>
   </si>
   <si>
@@ -223,24 +223,24 @@
     <t>TFS#5:2</t>
   </si>
   <si>
+    <t>TFS#5:21</t>
+  </si>
+  <si>
     <t>TFS#5:30</t>
   </si>
   <si>
-    <t>CLF#3:4</t>
-  </si>
-  <si>
     <t>CLF#3:13</t>
   </si>
   <si>
     <t>CLF#3:23</t>
   </si>
   <si>
-    <t>CLF#3:29</t>
-  </si>
-  <si>
     <t>BG#5:7</t>
   </si>
   <si>
+    <t>BG#8:3</t>
+  </si>
+  <si>
     <t>DBG#7:5</t>
   </si>
   <si>
@@ -364,6 +364,9 @@
     <t>the food is great and reasonably priced.</t>
   </si>
   <si>
+    <t>this is a wonderful place on all stand points especially value ofr money.</t>
+  </si>
+  <si>
     <t>all of the pizzas are terrific and the price is even better!</t>
   </si>
   <si>
@@ -445,9 +448,6 @@
     <t>prices are fair across the board for both food and bev.</t>
   </si>
   <si>
-    <t>great place, great value.</t>
-  </si>
-  <si>
     <t>the food is flavorful, plentiful and reasonably priced.</t>
   </si>
   <si>
@@ -460,24 +460,24 @@
     <t>but $500 for a dinner for two that didn't include wine?</t>
   </si>
   <si>
+    <t>i read reviews that called the restaurant too expensive and i thought to myself, but may be it is worth it.</t>
+  </si>
+  <si>
     <t>service was just ok, it is not what you'd expect for $500.</t>
   </si>
   <si>
-    <t>i literally just got back home after visiting casa la femme and was so offended by my visit felt it necessary to try and warn other diners who value their money and time.</t>
-  </si>
-  <si>
     <t>however, our $14 drinks were were horrible!</t>
   </si>
   <si>
     <t>i would not expect this for a $55 dinner.</t>
   </si>
   <si>
-    <t>if it seemed possible to do so while there i would have fought my bill since my dinner portion of my meal was inedible!</t>
-  </si>
-  <si>
     <t>but if you're prepared to spend some $ and remember to ask if something they offer is complimentary, then this is the place to go for indian food</t>
   </si>
   <si>
+    <t>the lunch buffet is expensive but is deff worth it.</t>
+  </si>
+  <si>
     <t>too bad i had paid an extra $2 for the stone bowl.</t>
   </si>
   <si>
@@ -511,7 +511,7 @@
     <t>well</t>
   </si>
   <si>
-    <t>enough</t>
+    <t>worth</t>
   </si>
   <si>
     <t>fresh</t>
@@ -523,9 +523,6 @@
     <t>large</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
     <t>overpriced</t>
   </si>
   <si>
@@ -577,6 +574,9 @@
     <t>reasonably</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
@@ -622,27 +622,18 @@
     <t>ok</t>
   </si>
   <si>
-    <t>other</t>
-  </si>
-  <si>
     <t>horrible</t>
   </si>
   <si>
     <t>expect</t>
   </si>
   <si>
-    <t>inedible</t>
-  </si>
-  <si>
     <t>complimentary</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
@@ -745,6 +736,9 @@
     <t>['food', 'great', 'reasonably', 'priced']</t>
   </si>
   <si>
+    <t>['wonderful', 'place', 'stand', 'point', 'especially', 'value', 'ofr', 'money']</t>
+  </si>
+  <si>
     <t>['pizza', 'terrific', 'price', 'even', 'better']</t>
   </si>
   <si>
@@ -826,9 +820,6 @@
     <t>['price', 'fair', 'across', 'board', 'food', 'bev']</t>
   </si>
   <si>
-    <t>['great', 'place', 'great', 'value']</t>
-  </si>
-  <si>
     <t>['food', 'flavorful', 'plentiful', 'reasonably', 'priced']</t>
   </si>
   <si>
@@ -841,22 +832,22 @@
     <t>['', 'dinner', 'two', 'include', 'wine']</t>
   </si>
   <si>
+    <t>['read', 'review', 'called', 'restaurant', 'expensive', 'thought', 'may', 'worth']</t>
+  </si>
+  <si>
     <t>['service', 'ok', 'expect', '']</t>
   </si>
   <si>
-    <t>['literally', 'got', 'back', 'home', 'visiting', 'casa', 'la', 'femme', 'offended', 'visit', 'felt', 'necessary', 'try', 'warn', 'diner', 'value', 'money', 'time']</t>
-  </si>
-  <si>
     <t>['however', '', 'drink', 'horrible']</t>
   </si>
   <si>
     <t>['would', 'expect', '', 'dinner']</t>
   </si>
   <si>
-    <t>['seemed', 'possible', 'would', 'fought', 'bill', 'since', 'dinner', 'portion', 'meal', 'inedible']</t>
-  </si>
-  <si>
     <t>['prepared', 'spend', 'remember', 'ask', 'something', 'offer', 'complimentary', 'place', 'go', 'indian', 'food']</t>
+  </si>
+  <si>
+    <t>['lunch', 'buffet', 'expensive', 'deff', 'worth']</t>
   </si>
   <si>
     <t>['bad', 'paid', 'extra', '', 'stone', 'bowl']</t>
@@ -1278,10 +1269,10 @@
         <v>163</v>
       </c>
       <c r="E2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1298,10 +1289,10 @@
         <v>164</v>
       </c>
       <c r="E3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F3" t="s">
         <v>209</v>
-      </c>
-      <c r="F3" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1318,10 +1309,10 @@
         <v>165</v>
       </c>
       <c r="E4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1338,10 +1329,10 @@
         <v>166</v>
       </c>
       <c r="E5" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1358,10 +1349,10 @@
         <v>167</v>
       </c>
       <c r="E6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1378,10 +1369,10 @@
         <v>168</v>
       </c>
       <c r="E7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1395,13 +1386,13 @@
         <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F8" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1415,13 +1406,13 @@
         <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E9" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F9" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1435,13 +1426,13 @@
         <v>92</v>
       </c>
       <c r="D10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E10" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1458,10 +1449,10 @@
         <v>164</v>
       </c>
       <c r="E11" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1478,10 +1469,10 @@
         <v>167</v>
       </c>
       <c r="E12" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F12" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1495,13 +1486,13 @@
         <v>95</v>
       </c>
       <c r="D13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E13" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F13" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1515,13 +1506,13 @@
         <v>96</v>
       </c>
       <c r="D14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E14" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F14" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1535,13 +1526,13 @@
         <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E15" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F15" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1558,10 +1549,10 @@
         <v>167</v>
       </c>
       <c r="E16" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1575,13 +1566,13 @@
         <v>99</v>
       </c>
       <c r="D17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E17" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F17" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1595,13 +1586,13 @@
         <v>100</v>
       </c>
       <c r="D18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E18" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F18" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1615,13 +1606,13 @@
         <v>101</v>
       </c>
       <c r="D19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E19" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F19" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1635,13 +1626,13 @@
         <v>102</v>
       </c>
       <c r="D20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E20" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F20" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1655,13 +1646,13 @@
         <v>103</v>
       </c>
       <c r="D21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E21" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F21" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1675,13 +1666,13 @@
         <v>104</v>
       </c>
       <c r="D22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E22" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F22" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1695,13 +1686,13 @@
         <v>105</v>
       </c>
       <c r="D23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E23" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F23" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1715,13 +1706,13 @@
         <v>106</v>
       </c>
       <c r="D24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E24" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F24" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1735,13 +1726,13 @@
         <v>107</v>
       </c>
       <c r="D25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E25" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F25" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1755,13 +1746,13 @@
         <v>108</v>
       </c>
       <c r="D26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E26" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F26" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1775,13 +1766,13 @@
         <v>109</v>
       </c>
       <c r="D27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E27" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F27" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1795,13 +1786,13 @@
         <v>110</v>
       </c>
       <c r="D28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E28" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F28" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1815,13 +1806,13 @@
         <v>111</v>
       </c>
       <c r="D29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E29" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F29" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1835,13 +1826,13 @@
         <v>112</v>
       </c>
       <c r="D30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E30" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F30" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1855,13 +1846,13 @@
         <v>113</v>
       </c>
       <c r="D31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E31" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F31" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1875,13 +1866,13 @@
         <v>114</v>
       </c>
       <c r="D32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E32" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F32" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1895,13 +1886,13 @@
         <v>115</v>
       </c>
       <c r="D33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E33" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F33" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1915,13 +1906,13 @@
         <v>116</v>
       </c>
       <c r="D34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E34" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F34" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1935,13 +1926,13 @@
         <v>117</v>
       </c>
       <c r="D35" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="E35" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F35" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1958,10 +1949,10 @@
         <v>169</v>
       </c>
       <c r="E36" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F36" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1975,13 +1966,13 @@
         <v>119</v>
       </c>
       <c r="D37" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="E37" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F37" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1995,13 +1986,13 @@
         <v>120</v>
       </c>
       <c r="D38" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="E38" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2015,13 +2006,13 @@
         <v>121</v>
       </c>
       <c r="D39" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="E39" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F39" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2035,13 +2026,13 @@
         <v>122</v>
       </c>
       <c r="D40" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E40" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F40" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2055,13 +2046,13 @@
         <v>123</v>
       </c>
       <c r="D41" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="E41" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F41" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2075,13 +2066,13 @@
         <v>124</v>
       </c>
       <c r="D42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E42" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F42" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2095,13 +2086,13 @@
         <v>125</v>
       </c>
       <c r="D43" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="E43" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F43" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2115,13 +2106,13 @@
         <v>126</v>
       </c>
       <c r="D44" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="E44" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F44" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2135,13 +2126,13 @@
         <v>127</v>
       </c>
       <c r="D45" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E45" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F45" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2155,13 +2146,13 @@
         <v>128</v>
       </c>
       <c r="D46" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E46" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F46" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2175,13 +2166,13 @@
         <v>129</v>
       </c>
       <c r="D47" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E47" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F47" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2195,13 +2186,13 @@
         <v>130</v>
       </c>
       <c r="D48" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="E48" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F48" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2215,13 +2206,13 @@
         <v>131</v>
       </c>
       <c r="D49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E49" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F49" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2235,13 +2226,13 @@
         <v>132</v>
       </c>
       <c r="D50" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E50" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F50" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2255,13 +2246,13 @@
         <v>133</v>
       </c>
       <c r="D51" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E51" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F51" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2275,13 +2266,13 @@
         <v>134</v>
       </c>
       <c r="D52" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="E52" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F52" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2295,13 +2286,13 @@
         <v>135</v>
       </c>
       <c r="D53" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="E53" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F53" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2315,13 +2306,13 @@
         <v>136</v>
       </c>
       <c r="D54" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="E54" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F54" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2335,13 +2326,13 @@
         <v>137</v>
       </c>
       <c r="D55" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="E55" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F55" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2355,13 +2346,13 @@
         <v>138</v>
       </c>
       <c r="D56" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="E56" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F56" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2375,13 +2366,13 @@
         <v>139</v>
       </c>
       <c r="D57" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="E57" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F57" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2395,13 +2386,13 @@
         <v>140</v>
       </c>
       <c r="D58" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E58" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F58" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2415,13 +2406,13 @@
         <v>141</v>
       </c>
       <c r="D59" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E59" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F59" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2435,13 +2426,13 @@
         <v>142</v>
       </c>
       <c r="D60" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E60" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F60" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2455,13 +2446,13 @@
         <v>143</v>
       </c>
       <c r="D61" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="E61" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F61" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2475,13 +2466,13 @@
         <v>144</v>
       </c>
       <c r="D62" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E62" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F62" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2498,10 +2489,10 @@
         <v>199</v>
       </c>
       <c r="E63" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F63" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2515,13 +2506,13 @@
         <v>146</v>
       </c>
       <c r="D64" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E64" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F64" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2538,10 +2529,10 @@
         <v>200</v>
       </c>
       <c r="E65" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F65" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2555,13 +2546,13 @@
         <v>148</v>
       </c>
       <c r="D66" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="E66" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F66" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2575,13 +2566,13 @@
         <v>149</v>
       </c>
       <c r="D67" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E67" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F67" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2595,13 +2586,13 @@
         <v>150</v>
       </c>
       <c r="D68" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E68" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F68" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2615,13 +2606,13 @@
         <v>151</v>
       </c>
       <c r="D69" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E69" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F69" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2635,13 +2626,13 @@
         <v>152</v>
       </c>
       <c r="D70" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E70" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F70" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2655,13 +2646,13 @@
         <v>153</v>
       </c>
       <c r="D71" t="s">
-        <v>206</v>
+        <v>165</v>
       </c>
       <c r="E71" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F71" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2675,13 +2666,13 @@
         <v>154</v>
       </c>
       <c r="D72" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E72" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F72" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2695,13 +2686,13 @@
         <v>155</v>
       </c>
       <c r="D73" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="E73" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F73" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2718,10 +2709,10 @@
         <v>167</v>
       </c>
       <c r="E74" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F74" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2738,10 +2729,10 @@
         <v>164</v>
       </c>
       <c r="E75" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F75" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2755,13 +2746,13 @@
         <v>158</v>
       </c>
       <c r="D76" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E76" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F76" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2778,10 +2769,10 @@
         <v>196</v>
       </c>
       <c r="E77" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F77" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2798,10 +2789,10 @@
         <v>167</v>
       </c>
       <c r="E78" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F78" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2818,10 +2809,10 @@
         <v>187</v>
       </c>
       <c r="E79" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F79" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2838,10 +2829,10 @@
         <v>189</v>
       </c>
       <c r="E80" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F80" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/Results/PRICES.xlsx
+++ b/Results/PRICES.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="299">
   <si>
     <t>id</t>
   </si>
@@ -160,6 +160,9 @@
     <t>527109:3</t>
   </si>
   <si>
+    <t>565344:1</t>
+  </si>
+  <si>
     <t>584025:2</t>
   </si>
   <si>
@@ -229,12 +232,18 @@
     <t>TFS#5:30</t>
   </si>
   <si>
+    <t>CLF#3:4</t>
+  </si>
+  <si>
     <t>CLF#3:13</t>
   </si>
   <si>
     <t>CLF#3:23</t>
   </si>
   <si>
+    <t>CLF#3:30</t>
+  </si>
+  <si>
     <t>BG#5:7</t>
   </si>
   <si>
@@ -397,6 +406,9 @@
     <t>the wine list is extensive and can easily hike up an otherwise reasonably priced meal.</t>
   </si>
   <si>
+    <t>this little place definitely exceeded my expectations and you sure get a lot of food for your money.</t>
+  </si>
+  <si>
     <t>the food is great and they have a good selecion of wines at reasonable prices.</t>
   </si>
   <si>
@@ -466,12 +478,18 @@
     <t>service was just ok, it is not what you'd expect for $500.</t>
   </si>
   <si>
+    <t>i literally just got back home after visiting casa la femme and was so offended by my visit felt it necessary to try and warn other diners who value their money and time.</t>
+  </si>
+  <si>
     <t>however, our $14 drinks were were horrible!</t>
   </si>
   <si>
     <t>i would not expect this for a $55 dinner.</t>
   </si>
   <si>
+    <t>i have never left a restaurant feeling as if i was abused, and wasted my hard earned money.</t>
+  </si>
+  <si>
     <t>but if you're prepared to spend some $ and remember to ask if something they offer is complimentary, then this is the place to go for indian food</t>
   </si>
   <si>
@@ -589,6 +607,9 @@
     <t>affordable</t>
   </si>
   <si>
+    <t>exceeded</t>
+  </si>
+  <si>
     <t>incredible</t>
   </si>
   <si>
@@ -622,12 +643,18 @@
     <t>ok</t>
   </si>
   <si>
+    <t>other</t>
+  </si>
+  <si>
     <t>horrible</t>
   </si>
   <si>
     <t>expect</t>
   </si>
   <si>
+    <t>hard</t>
+  </si>
+  <si>
     <t>complimentary</t>
   </si>
   <si>
@@ -769,6 +796,9 @@
     <t>['wine', 'list', 'extensive', 'easily', 'hike', 'otherwise', 'reasonably', 'priced', 'meal']</t>
   </si>
   <si>
+    <t>['little', 'place', 'definitely', 'exceeded', 'expectation', 'sure', 'get', 'lot', 'food', 'money']</t>
+  </si>
+  <si>
     <t>['food', 'great', 'good', 'selecion', 'wine', 'reasonable', 'price']</t>
   </si>
   <si>
@@ -838,10 +868,16 @@
     <t>['service', 'ok', 'expect', '']</t>
   </si>
   <si>
+    <t>['literally', 'got', 'back', 'home', 'visiting', 'casa', 'la', 'femme', 'offended', 'visit', 'felt', 'necessary', 'try', 'warn', 'diner', 'value', 'money', 'time']</t>
+  </si>
+  <si>
     <t>['however', '', 'drink', 'horrible']</t>
   </si>
   <si>
     <t>['would', 'expect', '', 'dinner']</t>
+  </si>
+  <si>
+    <t>['never', 'left', 'restaurant', 'feeling', 'abused', 'wasted', 'hard', 'earned', 'money']</t>
   </si>
   <si>
     <t>['prepared', 'spend', 'remember', 'ask', 'something', 'offer', 'complimentary', 'place', 'go', 'indian', 'food']</t>
@@ -1232,7 +1268,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1263,16 +1299,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E2" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F2" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1283,16 +1319,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E3" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F3" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1303,16 +1339,16 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E4" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F4" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1323,16 +1359,16 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="E5" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F5" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1343,16 +1379,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D6" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E6" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F6" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1363,16 +1399,16 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="E7" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F7" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1383,16 +1419,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D8" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E8" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F8" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1403,16 +1439,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D9" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E9" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F9" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1423,16 +1459,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D10" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="E10" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F10" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1443,16 +1479,16 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E11" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F11" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1463,16 +1499,16 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D12" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E12" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F12" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1483,16 +1519,16 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D13" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E13" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F13" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1503,16 +1539,16 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D14" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="E14" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F14" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1523,16 +1559,16 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="E15" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F15" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1543,16 +1579,16 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D16" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E16" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F16" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1563,16 +1599,16 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D17" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="E17" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F17" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1583,16 +1619,16 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D18" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="E18" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F18" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1603,16 +1639,16 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D19" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="E19" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F19" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1623,16 +1659,16 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D20" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="E20" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F20" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1643,16 +1679,16 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D21" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="E21" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F21" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1663,16 +1699,16 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D22" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="E22" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F22" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1683,16 +1719,16 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D23" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="E23" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F23" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1703,16 +1739,16 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D24" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="E24" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F24" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1723,16 +1759,16 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D25" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="E25" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F25" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1743,16 +1779,16 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D26" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="E26" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F26" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1763,16 +1799,16 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D27" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="E27" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F27" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1783,16 +1819,16 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D28" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E28" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F28" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1803,16 +1839,16 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D29" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E29" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F29" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1823,16 +1859,16 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D30" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E30" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F30" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1843,16 +1879,16 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D31" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="E31" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F31" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1863,16 +1899,16 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D32" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="E32" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F32" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1883,16 +1919,16 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D33" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="E33" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F33" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1903,16 +1939,16 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D34" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="E34" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F34" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1923,16 +1959,16 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D35" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="E35" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F35" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1943,16 +1979,16 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D36" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E36" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F36" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1963,16 +1999,16 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D37" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E37" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F37" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1983,16 +2019,16 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D38" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E38" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F38" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2003,16 +2039,16 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D39" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E39" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F39" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2023,16 +2059,16 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D40" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="E40" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F40" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2043,16 +2079,16 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D41" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="E41" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F41" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2063,16 +2099,16 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D42" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="E42" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F42" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2083,16 +2119,16 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D43" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="E43" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F43" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2103,16 +2139,16 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D44" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="E44" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F44" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2123,16 +2159,16 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D45" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="E45" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F45" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2143,16 +2179,16 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D46" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E46" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="F46" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2163,16 +2199,16 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D47" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E47" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="F47" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2183,16 +2219,16 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D48" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="E48" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F48" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2203,16 +2239,16 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D49" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="E49" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F49" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2223,16 +2259,16 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D50" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="E50" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F50" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2243,16 +2279,16 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D51" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="E51" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="F51" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2263,16 +2299,16 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D52" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="E52" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F52" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2283,16 +2319,16 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D53" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="E53" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="F53" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2303,16 +2339,16 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D54" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="E54" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F54" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2323,16 +2359,16 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D55" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="E55" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="F55" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2343,16 +2379,16 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D56" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E56" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="F56" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2363,16 +2399,16 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D57" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="E57" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F57" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2383,16 +2419,16 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D58" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="E58" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="F58" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2403,16 +2439,16 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D59" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="E59" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F59" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2423,16 +2459,16 @@
         <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D60" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="E60" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F60" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2443,16 +2479,16 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D61" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="E61" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="F61" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2463,16 +2499,16 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D62" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="E62" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F62" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2483,16 +2519,16 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D63" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E63" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F63" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2503,16 +2539,16 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D64" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="E64" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F64" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2523,16 +2559,16 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D65" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="E65" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="F65" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2543,16 +2579,16 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D66" t="s">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="E66" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F66" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2563,16 +2599,16 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D67" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="E67" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F67" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2583,16 +2619,16 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D68" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="E68" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F68" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2603,16 +2639,16 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D69" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="E69" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F69" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2623,16 +2659,16 @@
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D70" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="E70" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F70" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2643,16 +2679,16 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D71" t="s">
-        <v>165</v>
+        <v>211</v>
       </c>
       <c r="E71" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F71" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2663,16 +2699,16 @@
         <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D72" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="E72" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F72" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2683,16 +2719,16 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D73" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="E73" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="F73" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2703,16 +2739,16 @@
         <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D74" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E74" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="F74" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2723,16 +2759,16 @@
         <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D75" t="s">
-        <v>164</v>
+        <v>214</v>
       </c>
       <c r="E75" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F75" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2743,16 +2779,16 @@
         <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D76" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="E76" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="F76" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2763,16 +2799,16 @@
         <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D77" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="E77" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="F77" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2783,16 +2819,16 @@
         <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D78" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E78" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F78" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2803,16 +2839,16 @@
         <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D79" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E79" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F79" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2823,16 +2859,76 @@
         <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D80" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="E80" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F80" t="s">
-        <v>286</v>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>84</v>
+      </c>
+      <c r="C81" t="s">
+        <v>166</v>
+      </c>
+      <c r="D81" t="s">
+        <v>173</v>
+      </c>
+      <c r="E81" t="s">
+        <v>216</v>
+      </c>
+      <c r="F81" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>85</v>
+      </c>
+      <c r="C82" t="s">
+        <v>167</v>
+      </c>
+      <c r="D82" t="s">
+        <v>193</v>
+      </c>
+      <c r="E82" t="s">
+        <v>216</v>
+      </c>
+      <c r="F82" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>86</v>
+      </c>
+      <c r="C83" t="s">
+        <v>168</v>
+      </c>
+      <c r="D83" t="s">
+        <v>195</v>
+      </c>
+      <c r="E83" t="s">
+        <v>216</v>
+      </c>
+      <c r="F83" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>

--- a/Results/PRICES.xlsx
+++ b/Results/PRICES.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="309">
   <si>
     <t>id</t>
   </si>
@@ -526,118 +526,133 @@
     <t>beat</t>
   </si>
   <si>
-    <t>well</t>
+    <t>worth|worth|worth</t>
   </si>
   <si>
     <t>worth</t>
   </si>
   <si>
-    <t>fresh</t>
+    <t>much</t>
+  </si>
+  <si>
+    <t>reasonable|reasonable</t>
+  </si>
+  <si>
+    <t>large</t>
+  </si>
+  <si>
+    <t>great|great</t>
+  </si>
+  <si>
+    <t>plain</t>
+  </si>
+  <si>
+    <t>welll</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>reasonable|reasonable|reasonable</t>
+  </si>
+  <si>
+    <t>best|best</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>mortal</t>
+  </si>
+  <si>
+    <t>worth|worth|pricey|worth|pricey|worth</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>indian</t>
+  </si>
+  <si>
+    <t>only|only</t>
+  </si>
+  <si>
+    <t>enough|good</t>
+  </si>
+  <si>
+    <t>extensive</t>
+  </si>
+  <si>
+    <t>wonderful|wonderful</t>
+  </si>
+  <si>
+    <t>terrific</t>
+  </si>
+  <si>
+    <t>tasteless|tasteless</t>
+  </si>
+  <si>
+    <t>worth|worth</t>
+  </si>
+  <si>
+    <t>delish</t>
+  </si>
+  <si>
+    <t>worth|pricey</t>
+  </si>
+  <si>
+    <t>affordable</t>
+  </si>
+  <si>
+    <t>great|pricey</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>overpriced|overpriced</t>
   </si>
   <si>
     <t>reasonable</t>
   </si>
   <si>
-    <t>large</t>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>affordable|good|great|affordable</t>
+  </si>
+  <si>
+    <t>pricey</t>
   </si>
   <si>
     <t>overpriced</t>
   </si>
   <si>
-    <t>fairly</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>limited</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>average</t>
-  </si>
-  <si>
-    <t>priced</t>
-  </si>
-  <si>
-    <t>cramped</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>mortal</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>authentic</t>
-  </si>
-  <si>
-    <t>only</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>bargain</t>
-  </si>
-  <si>
-    <t>extensive</t>
-  </si>
-  <si>
-    <t>reasonably</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>pricey</t>
-  </si>
-  <si>
-    <t>affordable</t>
-  </si>
-  <si>
-    <t>exceeded</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>speedy</t>
-  </si>
-  <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>eat</t>
-  </si>
-  <si>
-    <t>cost</t>
-  </si>
-  <si>
     <t>bland</t>
   </si>
   <si>
-    <t>told</t>
-  </si>
-  <si>
     <t>fair</t>
   </si>
   <si>
-    <t>helpful</t>
-  </si>
-  <si>
-    <t>didnt</t>
+    <t>plentiful</t>
+  </si>
+  <si>
+    <t>average|average</t>
+  </si>
+  <si>
+    <t>amazing</t>
   </si>
   <si>
     <t>ok</t>
@@ -649,16 +664,31 @@
     <t>horrible</t>
   </si>
   <si>
-    <t>expect</t>
-  </si>
-  <si>
     <t>hard</t>
   </si>
   <si>
     <t>complimentary</t>
   </si>
   <si>
-    <t>bad</t>
+    <t>deff</t>
+  </si>
+  <si>
+    <t>extra</t>
+  </si>
+  <si>
+    <t>such</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>horrible|horrible</t>
+  </si>
+  <si>
+    <t>fishy</t>
+  </si>
+  <si>
+    <t>least</t>
   </si>
   <si>
     <t>positive</t>
@@ -1305,10 +1335,10 @@
         <v>169</v>
       </c>
       <c r="E2" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F2" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1325,10 +1355,10 @@
         <v>170</v>
       </c>
       <c r="E3" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F3" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1345,10 +1375,10 @@
         <v>171</v>
       </c>
       <c r="E4" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F4" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1365,10 +1395,10 @@
         <v>172</v>
       </c>
       <c r="E5" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F5" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1385,10 +1415,10 @@
         <v>173</v>
       </c>
       <c r="E6" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F6" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1405,10 +1435,10 @@
         <v>174</v>
       </c>
       <c r="E7" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F7" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1422,13 +1452,13 @@
         <v>93</v>
       </c>
       <c r="D8" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E8" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F8" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1442,13 +1472,13 @@
         <v>94</v>
       </c>
       <c r="D9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E9" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F9" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1462,13 +1492,13 @@
         <v>95</v>
       </c>
       <c r="D10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E10" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F10" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1482,13 +1512,13 @@
         <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="E11" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F11" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1502,13 +1532,13 @@
         <v>97</v>
       </c>
       <c r="D12" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="E12" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F12" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1522,13 +1552,13 @@
         <v>98</v>
       </c>
       <c r="D13" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E13" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F13" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1542,13 +1572,13 @@
         <v>99</v>
       </c>
       <c r="D14" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E14" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F14" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1562,13 +1592,13 @@
         <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E15" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F15" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1585,10 +1615,10 @@
         <v>173</v>
       </c>
       <c r="E16" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F16" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1602,13 +1632,13 @@
         <v>102</v>
       </c>
       <c r="D17" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E17" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F17" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1621,14 +1651,11 @@
       <c r="C18" t="s">
         <v>103</v>
       </c>
-      <c r="D18" t="s">
-        <v>181</v>
-      </c>
       <c r="E18" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F18" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1642,13 +1669,13 @@
         <v>104</v>
       </c>
       <c r="D19" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E19" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F19" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1662,13 +1689,13 @@
         <v>105</v>
       </c>
       <c r="D20" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E20" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F20" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1682,13 +1709,13 @@
         <v>106</v>
       </c>
       <c r="D21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E21" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F21" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1702,13 +1729,13 @@
         <v>107</v>
       </c>
       <c r="D22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E22" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F22" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1722,13 +1749,13 @@
         <v>108</v>
       </c>
       <c r="D23" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E23" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F23" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1742,13 +1769,13 @@
         <v>109</v>
       </c>
       <c r="D24" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E24" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F24" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1761,14 +1788,11 @@
       <c r="C25" t="s">
         <v>110</v>
       </c>
-      <c r="D25" t="s">
-        <v>185</v>
-      </c>
       <c r="E25" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F25" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1782,13 +1806,13 @@
         <v>111</v>
       </c>
       <c r="D26" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E26" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F26" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1802,13 +1826,13 @@
         <v>112</v>
       </c>
       <c r="D27" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E27" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F27" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1822,13 +1846,13 @@
         <v>113</v>
       </c>
       <c r="D28" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E28" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F28" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1842,13 +1866,13 @@
         <v>114</v>
       </c>
       <c r="D29" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E29" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F29" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1862,13 +1886,13 @@
         <v>115</v>
       </c>
       <c r="D30" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E30" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F30" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1882,13 +1906,13 @@
         <v>116</v>
       </c>
       <c r="D31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E31" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F31" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1902,13 +1926,13 @@
         <v>117</v>
       </c>
       <c r="D32" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E32" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F32" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1922,13 +1946,13 @@
         <v>118</v>
       </c>
       <c r="D33" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E33" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F33" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1945,10 +1969,10 @@
         <v>192</v>
       </c>
       <c r="E34" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F34" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1965,10 +1989,10 @@
         <v>193</v>
       </c>
       <c r="E35" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F35" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1982,13 +2006,13 @@
         <v>121</v>
       </c>
       <c r="D36" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="E36" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F36" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2002,13 +2026,13 @@
         <v>122</v>
       </c>
       <c r="D37" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="E37" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F37" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2022,13 +2046,13 @@
         <v>123</v>
       </c>
       <c r="D38" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E38" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F38" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2045,10 +2069,10 @@
         <v>173</v>
       </c>
       <c r="E39" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F39" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2062,13 +2086,13 @@
         <v>125</v>
       </c>
       <c r="D40" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E40" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F40" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2082,13 +2106,13 @@
         <v>126</v>
       </c>
       <c r="D41" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E41" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F41" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2102,13 +2126,13 @@
         <v>127</v>
       </c>
       <c r="D42" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="E42" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F42" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2122,13 +2146,13 @@
         <v>128</v>
       </c>
       <c r="D43" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E43" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F43" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2145,10 +2169,10 @@
         <v>191</v>
       </c>
       <c r="E44" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F44" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2162,13 +2186,13 @@
         <v>130</v>
       </c>
       <c r="D45" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E45" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F45" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2185,10 +2209,10 @@
         <v>173</v>
       </c>
       <c r="E46" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F46" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2202,13 +2226,13 @@
         <v>132</v>
       </c>
       <c r="D47" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="E47" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F47" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2222,13 +2246,13 @@
         <v>133</v>
       </c>
       <c r="D48" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E48" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F48" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2242,13 +2266,13 @@
         <v>134</v>
       </c>
       <c r="D49" t="s">
-        <v>173</v>
+        <v>202</v>
       </c>
       <c r="E49" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F49" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2262,13 +2286,13 @@
         <v>135</v>
       </c>
       <c r="D50" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E50" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F50" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2282,13 +2306,13 @@
         <v>136</v>
       </c>
       <c r="D51" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E51" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F51" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2301,14 +2325,11 @@
       <c r="C52" t="s">
         <v>137</v>
       </c>
-      <c r="D52" t="s">
-        <v>200</v>
-      </c>
       <c r="E52" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F52" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2322,13 +2343,13 @@
         <v>138</v>
       </c>
       <c r="D53" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="E53" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F53" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2345,10 +2366,10 @@
         <v>173</v>
       </c>
       <c r="E54" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F54" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2361,14 +2382,11 @@
       <c r="C55" t="s">
         <v>140</v>
       </c>
-      <c r="D55" t="s">
-        <v>201</v>
-      </c>
       <c r="E55" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F55" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2382,13 +2400,13 @@
         <v>141</v>
       </c>
       <c r="D56" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="E56" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F56" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2402,13 +2420,13 @@
         <v>142</v>
       </c>
       <c r="D57" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="E57" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F57" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2422,13 +2440,13 @@
         <v>143</v>
       </c>
       <c r="D58" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E58" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F58" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2441,14 +2459,11 @@
       <c r="C59" t="s">
         <v>144</v>
       </c>
-      <c r="D59" t="s">
-        <v>202</v>
-      </c>
       <c r="E59" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F59" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2462,13 +2477,13 @@
         <v>145</v>
       </c>
       <c r="D60" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E60" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F60" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2481,14 +2496,11 @@
       <c r="C61" t="s">
         <v>146</v>
       </c>
-      <c r="D61" t="s">
-        <v>204</v>
-      </c>
       <c r="E61" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F61" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2502,13 +2514,13 @@
         <v>147</v>
       </c>
       <c r="D62" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E62" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F62" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2522,13 +2534,13 @@
         <v>148</v>
       </c>
       <c r="D63" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="E63" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F63" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2542,13 +2554,13 @@
         <v>149</v>
       </c>
       <c r="D64" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E64" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F64" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2562,13 +2574,13 @@
         <v>150</v>
       </c>
       <c r="D65" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="E65" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F65" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2581,14 +2593,11 @@
       <c r="C66" t="s">
         <v>151</v>
       </c>
-      <c r="D66" t="s">
-        <v>207</v>
-      </c>
       <c r="E66" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F66" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2605,10 +2614,10 @@
         <v>171</v>
       </c>
       <c r="E67" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F67" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2622,13 +2631,13 @@
         <v>153</v>
       </c>
       <c r="D68" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="E68" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F68" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2642,13 +2651,13 @@
         <v>154</v>
       </c>
       <c r="D69" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E69" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F69" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2662,13 +2671,13 @@
         <v>155</v>
       </c>
       <c r="D70" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="E70" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F70" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2681,14 +2690,11 @@
       <c r="C71" t="s">
         <v>156</v>
       </c>
-      <c r="D71" t="s">
-        <v>211</v>
-      </c>
       <c r="E71" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F71" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2702,13 +2708,13 @@
         <v>157</v>
       </c>
       <c r="D72" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E72" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F72" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2722,13 +2728,13 @@
         <v>158</v>
       </c>
       <c r="D73" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E73" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F73" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2742,13 +2748,13 @@
         <v>159</v>
       </c>
       <c r="D74" t="s">
-        <v>171</v>
+        <v>218</v>
       </c>
       <c r="E74" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F74" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2762,13 +2768,13 @@
         <v>160</v>
       </c>
       <c r="D75" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E75" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F75" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2782,13 +2788,13 @@
         <v>161</v>
       </c>
       <c r="D76" t="s">
-        <v>192</v>
+        <v>220</v>
       </c>
       <c r="E76" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F76" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2802,13 +2808,13 @@
         <v>162</v>
       </c>
       <c r="D77" t="s">
-        <v>173</v>
+        <v>221</v>
       </c>
       <c r="E77" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F77" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2822,13 +2828,13 @@
         <v>163</v>
       </c>
       <c r="D78" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="E78" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F78" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2842,13 +2848,13 @@
         <v>164</v>
       </c>
       <c r="D79" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E79" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F79" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2862,13 +2868,13 @@
         <v>165</v>
       </c>
       <c r="D80" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="E80" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F80" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2885,10 +2891,10 @@
         <v>173</v>
       </c>
       <c r="E81" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F81" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2902,13 +2908,13 @@
         <v>167</v>
       </c>
       <c r="D82" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="E82" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F82" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2922,13 +2928,13 @@
         <v>168</v>
       </c>
       <c r="D83" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="E83" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F83" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>

--- a/Results/PRICES.xlsx
+++ b/Results/PRICES.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="284">
   <si>
     <t>id</t>
   </si>
@@ -139,6 +139,9 @@
     <t>454704:2</t>
   </si>
   <si>
+    <t>475512:3</t>
+  </si>
+  <si>
     <t>490565:4</t>
   </si>
   <si>
@@ -160,9 +163,6 @@
     <t>527109:3</t>
   </si>
   <si>
-    <t>565344:1</t>
-  </si>
-  <si>
     <t>584025:2</t>
   </si>
   <si>
@@ -232,18 +232,12 @@
     <t>TFS#5:30</t>
   </si>
   <si>
-    <t>CLF#3:4</t>
-  </si>
-  <si>
     <t>CLF#3:13</t>
   </si>
   <si>
     <t>CLF#3:23</t>
   </si>
   <si>
-    <t>CLF#3:30</t>
-  </si>
-  <si>
     <t>BG#5:7</t>
   </si>
   <si>
@@ -385,6 +379,9 @@
     <t>this place is not worth the prices.</t>
   </si>
   <si>
+    <t>if you like your music blasted and the system isnt that great and if you want to pay at least 100 dollar bottle minimun then you'll love it here.</t>
+  </si>
+  <si>
     <t>you can get a completely delish martini in a glass (that's about 2 1/2 drinks) for $8.50 (i recommend the vanilla shanty, mmmm!) in a great homey setting with great music.</t>
   </si>
   <si>
@@ -406,9 +403,6 @@
     <t>the wine list is extensive and can easily hike up an otherwise reasonably priced meal.</t>
   </si>
   <si>
-    <t>this little place definitely exceeded my expectations and you sure get a lot of food for your money.</t>
-  </si>
-  <si>
     <t>the food is great and they have a good selecion of wines at reasonable prices.</t>
   </si>
   <si>
@@ -478,18 +472,12 @@
     <t>service was just ok, it is not what you'd expect for $500.</t>
   </si>
   <si>
-    <t>i literally just got back home after visiting casa la femme and was so offended by my visit felt it necessary to try and warn other diners who value their money and time.</t>
-  </si>
-  <si>
     <t>however, our $14 drinks were were horrible!</t>
   </si>
   <si>
     <t>i would not expect this for a $55 dinner.</t>
   </si>
   <si>
-    <t>i have never left a restaurant feeling as if i was abused, and wasted my hard earned money.</t>
-  </si>
-  <si>
     <t>but if you're prepared to spend some $ and remember to ask if something they offer is complimentary, then this is the place to go for indian food</t>
   </si>
   <si>
@@ -532,21 +520,12 @@
     <t>worth</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
     <t>reasonable|reasonable</t>
   </si>
   <si>
-    <t>large</t>
-  </si>
-  <si>
     <t>great|great</t>
   </si>
   <si>
-    <t>plain</t>
-  </si>
-  <si>
     <t>welll</t>
   </si>
   <si>
@@ -559,138 +538,90 @@
     <t>best|best</t>
   </si>
   <si>
-    <t>less</t>
+    <t>high</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>mortal</t>
+  </si>
+  <si>
+    <t>pricey|worth|pricey|worth|worth|worth</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>indian</t>
+  </si>
+  <si>
+    <t>only</t>
+  </si>
+  <si>
+    <t>enough</t>
+  </si>
+  <si>
+    <t>extensive</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>terrific</t>
+  </si>
+  <si>
+    <t>tasteless</t>
+  </si>
+  <si>
+    <t>worth|worth</t>
+  </si>
+  <si>
+    <t>pricey|worth</t>
+  </si>
+  <si>
+    <t>affordable</t>
+  </si>
+  <si>
+    <t>great|pricey</t>
+  </si>
+  <si>
+    <t>overpriced</t>
+  </si>
+  <si>
+    <t>reasonable</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>affordable|great|good|affordable</t>
+  </si>
+  <si>
+    <t>pricey</t>
+  </si>
+  <si>
+    <t>fair</t>
+  </si>
+  <si>
+    <t>plentiful</t>
   </si>
   <si>
     <t>average</t>
   </si>
   <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>mortal</t>
-  </si>
-  <si>
-    <t>worth|worth|pricey|worth|pricey|worth</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>indian</t>
-  </si>
-  <si>
-    <t>only|only</t>
-  </si>
-  <si>
-    <t>enough|good</t>
-  </si>
-  <si>
-    <t>extensive</t>
-  </si>
-  <si>
-    <t>wonderful|wonderful</t>
-  </si>
-  <si>
-    <t>terrific</t>
-  </si>
-  <si>
-    <t>tasteless|tasteless</t>
-  </si>
-  <si>
-    <t>worth|worth</t>
-  </si>
-  <si>
-    <t>delish</t>
-  </si>
-  <si>
-    <t>worth|pricey</t>
-  </si>
-  <si>
-    <t>affordable</t>
-  </si>
-  <si>
-    <t>great|pricey</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>overpriced|overpriced</t>
-  </si>
-  <si>
-    <t>reasonable</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>affordable|good|great|affordable</t>
-  </si>
-  <si>
-    <t>pricey</t>
-  </si>
-  <si>
-    <t>overpriced</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>bland</t>
-  </si>
-  <si>
-    <t>fair</t>
-  </si>
-  <si>
-    <t>plentiful</t>
-  </si>
-  <si>
-    <t>average|average</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>other</t>
+    <t>deff</t>
+  </si>
+  <si>
+    <t>|</t>
   </si>
   <si>
     <t>horrible</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>complimentary</t>
-  </si>
-  <si>
-    <t>deff</t>
-  </si>
-  <si>
-    <t>extra</t>
-  </si>
-  <si>
-    <t>such</t>
-  </si>
-  <si>
-    <t>|</t>
-  </si>
-  <si>
-    <t>horrible|horrible</t>
-  </si>
-  <si>
-    <t>fishy</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
@@ -805,6 +736,9 @@
     <t>['place', 'worth', 'price']</t>
   </si>
   <si>
+    <t>['like', 'music', 'blasted', 'system', 'great', 'want', 'pay', 'least', '', 'dollar', 'bottle', 'minimun', 'love']</t>
+  </si>
+  <si>
     <t>['get', 'completely', 'delish', 'martini', 'glass', 'thats', '', '', 'drink', '', 'recommend', 'vanilla', 'shanty', 'mmmm', 'great', 'homey', 'setting', 'great', 'music']</t>
   </si>
   <si>
@@ -826,9 +760,6 @@
     <t>['wine', 'list', 'extensive', 'easily', 'hike', 'otherwise', 'reasonably', 'priced', 'meal']</t>
   </si>
   <si>
-    <t>['little', 'place', 'definitely', 'exceeded', 'expectation', 'sure', 'get', 'lot', 'food', 'money']</t>
-  </si>
-  <si>
     <t>['food', 'great', 'good', 'selecion', 'wine', 'reasonable', 'price']</t>
   </si>
   <si>
@@ -898,16 +829,10 @@
     <t>['service', 'ok', 'expect', '']</t>
   </si>
   <si>
-    <t>['literally', 'got', 'back', 'home', 'visiting', 'casa', 'la', 'femme', 'offended', 'visit', 'felt', 'necessary', 'try', 'warn', 'diner', 'value', 'money', 'time']</t>
-  </si>
-  <si>
     <t>['however', '', 'drink', 'horrible']</t>
   </si>
   <si>
     <t>['would', 'expect', '', 'dinner']</t>
-  </si>
-  <si>
-    <t>['never', 'left', 'restaurant', 'feeling', 'abused', 'wasted', 'hard', 'earned', 'money']</t>
   </si>
   <si>
     <t>['prepared', 'spend', 'remember', 'ask', 'something', 'offer', 'complimentary', 'place', 'go', 'indian', 'food']</t>
@@ -1298,7 +1223,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1329,16 +1254,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E2" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="F2" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1349,16 +1274,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E3" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="F3" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1369,16 +1294,16 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E4" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="F4" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1389,16 +1314,13 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" t="s">
-        <v>172</v>
+        <v>88</v>
       </c>
       <c r="E5" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="F5" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1409,16 +1331,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E6" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="F6" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1429,16 +1351,13 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" t="s">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="E7" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F7" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1449,16 +1368,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E8" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="F8" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1469,16 +1388,13 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="E9" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F9" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1489,16 +1405,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E10" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="F10" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1509,16 +1425,16 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D11" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E11" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="F11" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1529,16 +1445,16 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D12" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E12" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="F12" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1549,16 +1465,16 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D13" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="E13" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="F13" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1569,16 +1485,13 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
       <c r="E14" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F14" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1589,16 +1502,16 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D15" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E15" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="F15" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1609,16 +1522,16 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D16" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E16" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="F16" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1629,16 +1542,13 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" t="s">
-        <v>182</v>
+        <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F17" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1649,13 +1559,13 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E18" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F18" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1666,16 +1576,16 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D19" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E19" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F19" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1686,16 +1596,16 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D20" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E20" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="F20" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1706,16 +1616,16 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D21" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E21" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="F21" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1726,16 +1636,16 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D22" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E22" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F22" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1746,16 +1656,16 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D23" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E23" t="s">
+        <v>202</v>
+      </c>
+      <c r="F23" t="s">
         <v>225</v>
-      </c>
-      <c r="F23" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1766,16 +1676,16 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D24" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="E24" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="F24" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1786,13 +1696,13 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E25" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F25" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1803,16 +1713,16 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D26" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E26" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="F26" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1823,16 +1733,16 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D27" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="E27" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F27" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1843,16 +1753,16 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D28" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E28" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F28" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1863,16 +1773,16 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D29" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="E29" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F29" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1883,16 +1793,13 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>115</v>
-      </c>
-      <c r="D30" t="s">
-        <v>187</v>
+        <v>113</v>
       </c>
       <c r="E30" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="F30" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1903,16 +1810,16 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D31" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E31" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="F31" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1923,16 +1830,16 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D32" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="E32" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="F32" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1943,16 +1850,16 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D33" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="E33" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="F33" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1963,16 +1870,16 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D34" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="E34" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="F34" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1983,16 +1890,16 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D35" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="E35" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="F35" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2003,16 +1910,16 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D36" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="E36" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F36" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2023,16 +1930,16 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D37" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E37" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F37" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2043,16 +1950,13 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>123</v>
-      </c>
-      <c r="D38" t="s">
-        <v>196</v>
+        <v>121</v>
       </c>
       <c r="E38" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="F38" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2063,16 +1967,13 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>124</v>
-      </c>
-      <c r="D39" t="s">
-        <v>173</v>
+        <v>122</v>
       </c>
       <c r="E39" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="F39" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2083,16 +1984,16 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D40" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="E40" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="F40" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2103,16 +2004,16 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D41" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="E41" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="F41" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2123,16 +2024,16 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D42" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="E42" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="F42" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2143,16 +2044,16 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D43" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E43" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="F43" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2163,16 +2064,16 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D44" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="E44" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="F44" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2183,16 +2084,16 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D45" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="E45" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="F45" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2203,16 +2104,16 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D46" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E46" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="F46" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2223,16 +2124,16 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D47" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="E47" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F47" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2243,16 +2144,16 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D48" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="E48" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="F48" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2263,16 +2164,16 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D49" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E49" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="F49" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2283,16 +2184,16 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D50" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="E50" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="F50" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2303,16 +2204,16 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D51" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="E51" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="F51" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2323,13 +2224,13 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E52" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F52" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2340,16 +2241,16 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D53" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="E53" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F53" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2360,16 +2261,16 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D54" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E54" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="F54" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2380,13 +2281,13 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E55" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="F55" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2397,16 +2298,13 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>141</v>
-      </c>
-      <c r="D56" t="s">
-        <v>206</v>
+        <v>139</v>
       </c>
       <c r="E56" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F56" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2417,16 +2315,13 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>142</v>
-      </c>
-      <c r="D57" t="s">
-        <v>207</v>
+        <v>140</v>
       </c>
       <c r="E57" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="F57" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2437,16 +2332,16 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D58" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E58" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="F58" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2457,13 +2352,13 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E59" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F59" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2474,16 +2369,13 @@
         <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>145</v>
-      </c>
-      <c r="D60" t="s">
-        <v>208</v>
+        <v>143</v>
       </c>
       <c r="E60" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F60" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2494,13 +2386,13 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E61" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F61" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2511,16 +2403,16 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D62" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="E62" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="F62" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2531,16 +2423,16 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D63" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="E63" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="F63" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2551,16 +2443,16 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D64" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="E64" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="F64" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2571,16 +2463,16 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D65" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="E65" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="F65" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2591,13 +2483,13 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E66" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F66" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2608,16 +2500,16 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D67" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E67" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F67" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2628,16 +2520,13 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>153</v>
-      </c>
-      <c r="D68" t="s">
-        <v>213</v>
+        <v>151</v>
       </c>
       <c r="E68" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F68" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2648,16 +2537,13 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>154</v>
-      </c>
-      <c r="D69" t="s">
-        <v>214</v>
+        <v>152</v>
       </c>
       <c r="E69" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F69" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2668,16 +2554,13 @@
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>155</v>
-      </c>
-      <c r="D70" t="s">
-        <v>215</v>
+        <v>153</v>
       </c>
       <c r="E70" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F70" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2688,13 +2571,13 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E71" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F71" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2705,16 +2588,16 @@
         <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D72" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="E72" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F72" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2725,16 +2608,13 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>158</v>
-      </c>
-      <c r="D73" t="s">
-        <v>217</v>
+        <v>156</v>
       </c>
       <c r="E73" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F73" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2745,16 +2625,13 @@
         <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>159</v>
-      </c>
-      <c r="D74" t="s">
-        <v>218</v>
+        <v>157</v>
       </c>
       <c r="E74" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="F74" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2765,16 +2642,16 @@
         <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D75" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="E75" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="F75" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2785,16 +2662,16 @@
         <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D76" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="E76" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="F76" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2805,16 +2682,16 @@
         <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D77" t="s">
-        <v>221</v>
+        <v>174</v>
       </c>
       <c r="E77" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="F77" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2825,16 +2702,13 @@
         <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>163</v>
-      </c>
-      <c r="D78" t="s">
-        <v>222</v>
+        <v>161</v>
       </c>
       <c r="E78" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F78" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2845,16 +2719,16 @@
         <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D79" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="E79" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F79" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2865,16 +2739,13 @@
         <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>165</v>
-      </c>
-      <c r="D80" t="s">
-        <v>223</v>
+        <v>163</v>
       </c>
       <c r="E80" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F80" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2885,56 +2756,16 @@
         <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D81" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="E81" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F81" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
-        <v>85</v>
-      </c>
-      <c r="C82" t="s">
-        <v>167</v>
-      </c>
-      <c r="D82" t="s">
-        <v>224</v>
-      </c>
-      <c r="E82" t="s">
-        <v>226</v>
-      </c>
-      <c r="F82" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83" t="s">
-        <v>86</v>
-      </c>
-      <c r="C83" t="s">
-        <v>168</v>
-      </c>
-      <c r="D83" t="s">
-        <v>205</v>
-      </c>
-      <c r="E83" t="s">
-        <v>226</v>
-      </c>
-      <c r="F83" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/Results/PRICES.xlsx
+++ b/Results/PRICES.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="298">
   <si>
     <t>id</t>
   </si>
@@ -520,12 +520,21 @@
     <t>worth</t>
   </si>
   <si>
+    <t>much</t>
+  </si>
+  <si>
     <t>reasonable|reasonable</t>
   </si>
   <si>
+    <t>large|large</t>
+  </si>
+  <si>
     <t>great|great</t>
   </si>
   <si>
+    <t>plain</t>
+  </si>
+  <si>
     <t>welll</t>
   </si>
   <si>
@@ -538,6 +547,12 @@
     <t>best|best</t>
   </si>
   <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>average|average</t>
+  </si>
+  <si>
     <t>high</t>
   </si>
   <si>
@@ -559,7 +574,7 @@
     <t>only</t>
   </si>
   <si>
-    <t>enough</t>
+    <t>enough|good</t>
   </si>
   <si>
     <t>extensive</t>
@@ -577,6 +592,9 @@
     <t>worth|worth</t>
   </si>
   <si>
+    <t>delish</t>
+  </si>
+  <si>
     <t>pricey|worth</t>
   </si>
   <si>
@@ -601,25 +619,49 @@
     <t>pricey</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>bland</t>
+  </si>
+  <si>
     <t>fair</t>
   </si>
   <si>
     <t>plentiful</t>
   </si>
   <si>
-    <t>average</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>complimentary</t>
+  </si>
+  <si>
     <t>deff</t>
   </si>
   <si>
+    <t>extra</t>
+  </si>
+  <si>
+    <t>such</t>
+  </si>
+  <si>
     <t>|</t>
   </si>
   <si>
-    <t>horrible</t>
+    <t>horrible|horrible</t>
+  </si>
+  <si>
+    <t>fishy</t>
+  </si>
+  <si>
+    <t>least</t>
   </si>
   <si>
     <t>positive</t>
@@ -1260,10 +1302,10 @@
         <v>165</v>
       </c>
       <c r="E2" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F2" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1280,10 +1322,10 @@
         <v>166</v>
       </c>
       <c r="E3" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F3" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1300,10 +1342,10 @@
         <v>167</v>
       </c>
       <c r="E4" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F4" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1316,11 +1358,14 @@
       <c r="C5" t="s">
         <v>88</v>
       </c>
+      <c r="D5" t="s">
+        <v>168</v>
+      </c>
       <c r="E5" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F5" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1334,13 +1379,13 @@
         <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E6" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F6" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1353,11 +1398,14 @@
       <c r="C7" t="s">
         <v>90</v>
       </c>
+      <c r="D7" t="s">
+        <v>170</v>
+      </c>
       <c r="E7" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F7" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1371,13 +1419,13 @@
         <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E8" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F8" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1390,11 +1438,14 @@
       <c r="C9" t="s">
         <v>92</v>
       </c>
+      <c r="D9" t="s">
+        <v>172</v>
+      </c>
       <c r="E9" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F9" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1408,13 +1459,13 @@
         <v>93</v>
       </c>
       <c r="D10" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E10" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F10" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1428,13 +1479,13 @@
         <v>94</v>
       </c>
       <c r="D11" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E11" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F11" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1448,13 +1499,13 @@
         <v>95</v>
       </c>
       <c r="D12" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E12" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F12" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1468,13 +1519,13 @@
         <v>96</v>
       </c>
       <c r="D13" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E13" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F13" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1487,11 +1538,14 @@
       <c r="C14" t="s">
         <v>97</v>
       </c>
+      <c r="D14" t="s">
+        <v>177</v>
+      </c>
       <c r="E14" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F14" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1505,13 +1559,13 @@
         <v>98</v>
       </c>
       <c r="D15" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E15" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F15" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1525,13 +1579,13 @@
         <v>99</v>
       </c>
       <c r="D16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E16" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F16" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1544,11 +1598,14 @@
       <c r="C17" t="s">
         <v>100</v>
       </c>
+      <c r="D17" t="s">
+        <v>178</v>
+      </c>
       <c r="E17" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F17" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1562,10 +1619,10 @@
         <v>101</v>
       </c>
       <c r="E18" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F18" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1579,13 +1636,13 @@
         <v>102</v>
       </c>
       <c r="D19" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E19" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F19" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1599,13 +1656,13 @@
         <v>103</v>
       </c>
       <c r="D20" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E20" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F20" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1619,13 +1676,13 @@
         <v>104</v>
       </c>
       <c r="D21" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E21" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F21" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1639,13 +1696,13 @@
         <v>105</v>
       </c>
       <c r="D22" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E22" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F22" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1659,13 +1716,13 @@
         <v>106</v>
       </c>
       <c r="D23" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E23" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F23" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1679,13 +1736,13 @@
         <v>107</v>
       </c>
       <c r="D24" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E24" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F24" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1699,10 +1756,10 @@
         <v>108</v>
       </c>
       <c r="E25" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F25" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1716,13 +1773,13 @@
         <v>109</v>
       </c>
       <c r="D26" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E26" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F26" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1736,13 +1793,13 @@
         <v>110</v>
       </c>
       <c r="D27" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E27" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F27" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1756,13 +1813,13 @@
         <v>111</v>
       </c>
       <c r="D28" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E28" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F28" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1776,13 +1833,13 @@
         <v>112</v>
       </c>
       <c r="D29" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E29" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F29" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1795,11 +1852,14 @@
       <c r="C30" t="s">
         <v>113</v>
       </c>
+      <c r="D30" t="s">
+        <v>183</v>
+      </c>
       <c r="E30" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F30" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1813,13 +1873,13 @@
         <v>114</v>
       </c>
       <c r="D31" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E31" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F31" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1833,13 +1893,13 @@
         <v>115</v>
       </c>
       <c r="D32" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E32" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F32" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1853,13 +1913,13 @@
         <v>116</v>
       </c>
       <c r="D33" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E33" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F33" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1873,13 +1933,13 @@
         <v>117</v>
       </c>
       <c r="D34" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="E34" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F34" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1893,13 +1953,13 @@
         <v>118</v>
       </c>
       <c r="D35" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E35" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F35" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1913,13 +1973,13 @@
         <v>119</v>
       </c>
       <c r="D36" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E36" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F36" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1933,13 +1993,13 @@
         <v>120</v>
       </c>
       <c r="D37" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E37" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F37" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1953,10 +2013,10 @@
         <v>121</v>
       </c>
       <c r="E38" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F38" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1969,11 +2029,14 @@
       <c r="C39" t="s">
         <v>122</v>
       </c>
+      <c r="D39" t="s">
+        <v>192</v>
+      </c>
       <c r="E39" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F39" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1987,13 +2050,13 @@
         <v>123</v>
       </c>
       <c r="D40" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E40" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F40" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2007,13 +2070,13 @@
         <v>124</v>
       </c>
       <c r="D41" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="E41" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F41" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2027,13 +2090,13 @@
         <v>125</v>
       </c>
       <c r="D42" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E42" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F42" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2047,13 +2110,13 @@
         <v>126</v>
       </c>
       <c r="D43" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="E43" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F43" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2067,13 +2130,13 @@
         <v>127</v>
       </c>
       <c r="D44" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E44" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F44" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2087,13 +2150,13 @@
         <v>128</v>
       </c>
       <c r="D45" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E45" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F45" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2107,13 +2170,13 @@
         <v>129</v>
       </c>
       <c r="D46" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E46" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F46" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2127,13 +2190,13 @@
         <v>130</v>
       </c>
       <c r="D47" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="E47" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F47" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2147,13 +2210,13 @@
         <v>131</v>
       </c>
       <c r="D48" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E48" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F48" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2167,13 +2230,13 @@
         <v>132</v>
       </c>
       <c r="D49" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E49" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F49" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2187,13 +2250,13 @@
         <v>133</v>
       </c>
       <c r="D50" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="E50" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F50" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2207,13 +2270,13 @@
         <v>134</v>
       </c>
       <c r="D51" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="E51" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F51" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2227,10 +2290,10 @@
         <v>135</v>
       </c>
       <c r="E52" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F52" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2244,13 +2307,13 @@
         <v>136</v>
       </c>
       <c r="D53" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E53" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F53" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2264,13 +2327,13 @@
         <v>137</v>
       </c>
       <c r="D54" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E54" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F54" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2284,10 +2347,10 @@
         <v>138</v>
       </c>
       <c r="E55" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F55" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2300,11 +2363,14 @@
       <c r="C56" t="s">
         <v>139</v>
       </c>
+      <c r="D56" t="s">
+        <v>196</v>
+      </c>
       <c r="E56" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F56" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2317,11 +2383,14 @@
       <c r="C57" t="s">
         <v>140</v>
       </c>
+      <c r="D57" t="s">
+        <v>201</v>
+      </c>
       <c r="E57" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F57" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2335,13 +2404,13 @@
         <v>141</v>
       </c>
       <c r="D58" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E58" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F58" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2355,10 +2424,10 @@
         <v>142</v>
       </c>
       <c r="E59" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F59" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2371,11 +2440,14 @@
       <c r="C60" t="s">
         <v>143</v>
       </c>
+      <c r="D60" t="s">
+        <v>202</v>
+      </c>
       <c r="E60" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F60" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2389,10 +2461,10 @@
         <v>144</v>
       </c>
       <c r="E61" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F61" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,13 +2478,13 @@
         <v>145</v>
       </c>
       <c r="D62" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="E62" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F62" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2426,13 +2498,13 @@
         <v>146</v>
       </c>
       <c r="D63" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="E63" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F63" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2446,13 +2518,13 @@
         <v>147</v>
       </c>
       <c r="D64" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="E64" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F64" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2466,13 +2538,13 @@
         <v>148</v>
       </c>
       <c r="D65" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="E65" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F65" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2486,10 +2558,10 @@
         <v>149</v>
       </c>
       <c r="E66" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F66" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2506,10 +2578,10 @@
         <v>167</v>
       </c>
       <c r="E67" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F67" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2522,11 +2594,14 @@
       <c r="C68" t="s">
         <v>151</v>
       </c>
+      <c r="D68" t="s">
+        <v>206</v>
+      </c>
       <c r="E68" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F68" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2539,11 +2614,14 @@
       <c r="C69" t="s">
         <v>152</v>
       </c>
+      <c r="D69" t="s">
+        <v>207</v>
+      </c>
       <c r="E69" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F69" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2557,10 +2635,10 @@
         <v>153</v>
       </c>
       <c r="E70" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F70" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2573,11 +2651,14 @@
       <c r="C71" t="s">
         <v>154</v>
       </c>
+      <c r="D71" t="s">
+        <v>208</v>
+      </c>
       <c r="E71" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F71" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2591,13 +2672,13 @@
         <v>155</v>
       </c>
       <c r="D72" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="E72" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F72" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2610,11 +2691,14 @@
       <c r="C73" t="s">
         <v>156</v>
       </c>
+      <c r="D73" t="s">
+        <v>210</v>
+      </c>
       <c r="E73" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F73" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2627,11 +2711,14 @@
       <c r="C74" t="s">
         <v>157</v>
       </c>
+      <c r="D74" t="s">
+        <v>211</v>
+      </c>
       <c r="E74" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F74" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2645,13 +2732,13 @@
         <v>158</v>
       </c>
       <c r="D75" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="E75" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F75" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2665,13 +2752,13 @@
         <v>159</v>
       </c>
       <c r="D76" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="E76" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F76" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2685,13 +2772,13 @@
         <v>160</v>
       </c>
       <c r="D77" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E77" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F77" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2704,11 +2791,14 @@
       <c r="C78" t="s">
         <v>161</v>
       </c>
+      <c r="D78" t="s">
+        <v>214</v>
+      </c>
       <c r="E78" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F78" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2722,13 +2812,13 @@
         <v>162</v>
       </c>
       <c r="D79" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E79" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F79" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2741,11 +2831,14 @@
       <c r="C80" t="s">
         <v>163</v>
       </c>
+      <c r="D80" t="s">
+        <v>215</v>
+      </c>
       <c r="E80" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F80" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2759,13 +2852,13 @@
         <v>164</v>
       </c>
       <c r="D81" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E81" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F81" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
